--- a/src/latestReader/Ekinoks_Test_Excel.xlsx
+++ b/src/latestReader/Ekinoks_Test_Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onurbektas/rename/ReaderControl/src/latestReader/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED0C557-1CBF-044E-B890-0D502096B57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="0" windowWidth="2190" windowHeight="1185" tabRatio="778" activeTab="1"/>
+    <workbookView xWindow="4620" yWindow="2020" windowWidth="19560" windowHeight="14360" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ekinoks Test" sheetId="47" r:id="rId1"/>
@@ -60,8 +66,8 @@
     <definedName name="AntenPark">#REF!</definedName>
     <definedName name="assads">#REF!</definedName>
     <definedName name="attr_sur_pulse">#REF!</definedName>
+    <definedName name="AYB_CIT_CEvap">#REF!</definedName>
     <definedName name="ayb_cit_c">#REF!</definedName>
-    <definedName name="AYB_CIT_CEvap">#REF!</definedName>
     <definedName name="AYB_CİT_Cevap">#REF!</definedName>
     <definedName name="AYB_Durum">#REF!</definedName>
     <definedName name="AYB_Versiyon_Mesaji">#REF!</definedName>
@@ -76,8 +82,6 @@
     <definedName name="CekCit">#REF!</definedName>
     <definedName name="CekKontParam">#REF!</definedName>
     <definedName name="CGCBCit">#REF!</definedName>
-    <definedName name="cit">#REF!</definedName>
-    <definedName name="CİT_SHOB">#REF!</definedName>
     <definedName name="CITAck">#REF!</definedName>
     <definedName name="CITDetayIstek">#REF!</definedName>
     <definedName name="CITGCBCekirdek">#REF!</definedName>
@@ -87,11 +91,13 @@
     <definedName name="CITSAK">#REF!</definedName>
     <definedName name="CITSicaklikIstek">#REF!</definedName>
     <definedName name="CITSKK">#REF!</definedName>
+    <definedName name="CITSurekliDetay">#REF!</definedName>
+    <definedName name="CITSurekliOzet">#REF!</definedName>
+    <definedName name="cit">#REF!</definedName>
+    <definedName name="CİT_SHOB">#REF!</definedName>
     <definedName name="CitSonucRFAlma">#REF!</definedName>
     <definedName name="CitSonucSAB">#REF!</definedName>
     <definedName name="CitSonucTR">#REF!</definedName>
-    <definedName name="CITSurekliDetay">#REF!</definedName>
-    <definedName name="CITSurekliOzet">#REF!</definedName>
     <definedName name="DCİT_Cvp">#REF!</definedName>
     <definedName name="DCİT_İstek">#REF!</definedName>
     <definedName name="devrekesiciler">#REF!</definedName>
@@ -121,8 +127,6 @@
     <definedName name="FuzeliIzler">#REF!</definedName>
     <definedName name="FuzeliIzlerDusur">#REF!</definedName>
     <definedName name="GAC_CalismaSaatiCevap">#REF!</definedName>
-    <definedName name="GAÇ_Data_Geç">#REF!</definedName>
-    <definedName name="GAÇ_Dosya_Yaz_Cevap">#REF!</definedName>
     <definedName name="GAC_Konfig">#REF!</definedName>
     <definedName name="GAC_Konfig_Cevap">#REF!</definedName>
     <definedName name="GAC_Uretim">#REF!</definedName>
@@ -130,8 +134,10 @@
     <definedName name="GACBirimIDCevap">#REF!</definedName>
     <definedName name="GACCIT">#REF!</definedName>
     <definedName name="GACHuzpar">#REF!</definedName>
+    <definedName name="GACVersiyonCevap">#REF!</definedName>
+    <definedName name="GAÇ_Data_Geç">#REF!</definedName>
+    <definedName name="GAÇ_Dosya_Yaz_Cevap">#REF!</definedName>
     <definedName name="GAÇHuzpar">#REF!</definedName>
-    <definedName name="GACVersiyonCevap">#REF!</definedName>
     <definedName name="GAModülParam">'[1]Veri Destesi'!#REF!</definedName>
     <definedName name="GCB_Bilgisi">#REF!</definedName>
     <definedName name="GCB_Versiyon">#REF!</definedName>
@@ -150,7 +156,6 @@
     <definedName name="HUZPARORTAK">#REF!</definedName>
     <definedName name="HUZPARRSI">#REF!</definedName>
     <definedName name="HUZPARRVI">#REF!</definedName>
-    <definedName name="idealcikisgucufazi">'[1]Veri Destesi'!#REF!</definedName>
     <definedName name="IFF_İz_Raporu">[1]ReservedRVI!#REF!</definedName>
     <definedName name="IFF_Vers_Cevap">#REF!</definedName>
     <definedName name="IFF_Yaz_CIT">#REF!</definedName>
@@ -158,12 +163,9 @@
     <definedName name="IFFPlotRaporu">#REF!</definedName>
     <definedName name="IKB_CIT_Cevap">#REF!</definedName>
     <definedName name="IKB_Versiyon_Cevap">#REF!</definedName>
-    <definedName name="İKİNCİ_KISIM_BİRİMDEN_GELEN_DETAY_CİT_BİLGİLERİNİ_İÇERMEKTEDİR.">#REF!</definedName>
     <definedName name="IsimaBaslat">#REF!</definedName>
     <definedName name="IUB_Calisma_Saati_Cevap">#REF!</definedName>
     <definedName name="IUB_Calisma_Saati_Istek">#REF!</definedName>
-    <definedName name="İÜB_Dosya_Yaz_Cvp">#REF!</definedName>
-    <definedName name="İÜB_Huzpar">#REF!</definedName>
     <definedName name="IUB_Konfig_Ayar">#REF!</definedName>
     <definedName name="IUB_Post_Pre_Trig">#REF!</definedName>
     <definedName name="IUB_Uretim">#REF!</definedName>
@@ -173,25 +175,29 @@
     <definedName name="IUBCitİstek">#REF!</definedName>
     <definedName name="IUBCitleri">#REF!</definedName>
     <definedName name="IUBCitSonuc">#REF!</definedName>
-    <definedName name="İÜBDalgaBiçimiYükleme">#REF!</definedName>
     <definedName name="IUBDBYuklemeCevap">#REF!</definedName>
     <definedName name="IUBHuzpar">#REF!</definedName>
-    <definedName name="İÜBHuzpar">#REF!</definedName>
     <definedName name="IUBHuzparCevap">#REF!</definedName>
     <definedName name="IUBKalCevap">#REF!</definedName>
     <definedName name="IUBKalData">#REF!</definedName>
     <definedName name="IUBKonfAyarCvp">#REF!</definedName>
     <definedName name="IUBKontrolParametreleri">#REF!</definedName>
-    <definedName name="İÜBKontrolParametreleri">#REF!</definedName>
     <definedName name="IUBNAK">#REF!</definedName>
     <definedName name="IUBVersiyonCevap">#REF!</definedName>
     <definedName name="IUBVersiyonIstek">#REF!</definedName>
     <definedName name="IUBYazilimYukle">#REF!</definedName>
+    <definedName name="IzDusur">#REF!</definedName>
+    <definedName name="IzRaporuIFFEki">#REF!</definedName>
+    <definedName name="idealcikisgucufazi">'[1]Veri Destesi'!#REF!</definedName>
+    <definedName name="İKİNCİ_KISIM_BİRİMDEN_GELEN_DETAY_CİT_BİLGİLERİNİ_İÇERMEKTEDİR.">#REF!</definedName>
+    <definedName name="İÜB_Dosya_Yaz_Cvp">#REF!</definedName>
+    <definedName name="İÜB_Huzpar">#REF!</definedName>
+    <definedName name="İÜBDalgaBiçimiYükleme">#REF!</definedName>
+    <definedName name="İÜBHuzpar">#REF!</definedName>
+    <definedName name="İÜBKontrolParametreleri">#REF!</definedName>
     <definedName name="iz_dusur">#REF!</definedName>
     <definedName name="iz_düşür">#REF!</definedName>
     <definedName name="iz_raporu">#REF!</definedName>
-    <definedName name="IzDusur">#REF!</definedName>
-    <definedName name="IzRaporuIFFEki">#REF!</definedName>
     <definedName name="jen_icd">#REF!</definedName>
     <definedName name="kagdb_cit">#REF!</definedName>
     <definedName name="Kal_Bir_CIT">#REF!</definedName>
@@ -201,9 +207,9 @@
     <definedName name="KalibrasyonTipi">#REF!</definedName>
     <definedName name="kar_iz_rapor">#REF!</definedName>
     <definedName name="kar_olc_raporu">#REF!</definedName>
+    <definedName name="KarıştırıcıRaporu">#REF!</definedName>
     <definedName name="KaristiriciIzRaporu">#REF!</definedName>
     <definedName name="KaristiriciOlcumRaporu">#REF!</definedName>
-    <definedName name="KarıştırıcıRaporu">#REF!</definedName>
     <definedName name="KaristiriciTespitRaporu">#REF!</definedName>
     <definedName name="KARRAPORU">#REF!</definedName>
     <definedName name="KBGK_CIT">#REF!</definedName>
@@ -219,12 +225,12 @@
     <definedName name="LethalSorgulama">#REF!</definedName>
     <definedName name="LO">#REF!</definedName>
     <definedName name="LO_Seçimi">#REF!</definedName>
+    <definedName name="M1_AKTIF_PASIF_SECIM">#REF!</definedName>
     <definedName name="m1_aktif_pasif">#REF!</definedName>
-    <definedName name="M1_AKTIF_PASIF_SECIM">#REF!</definedName>
+    <definedName name="M2_AKTIF_PASIF_SECIM">#REF!</definedName>
     <definedName name="m2_aktif_pasif">#REF!</definedName>
-    <definedName name="M2_AKTIF_PASIF_SECIM">#REF!</definedName>
+    <definedName name="M3_AKTIF_PASIF_SECIM">#REF!</definedName>
     <definedName name="m3_aktif_pasif">#REF!</definedName>
-    <definedName name="M3_AKTIF_PASIF_SECIM">#REF!</definedName>
     <definedName name="Manuel_Konum">#REF!</definedName>
     <definedName name="Manuel_Kuzey_Aci">#REF!</definedName>
     <definedName name="Manuel_Sorgulama_Alanları_Tanımlama_Mesajı">#REF!</definedName>
@@ -232,8 +238,8 @@
     <definedName name="Masterlik_Durum">#REF!</definedName>
     <definedName name="MenzilModu">#REF!</definedName>
     <definedName name="Meteoroloji_Raporu">#REF!</definedName>
+    <definedName name="MIYBKontrolParam">#REF!</definedName>
     <definedName name="MİYBCİTCevabı">#REF!</definedName>
-    <definedName name="MIYBKontrolParam">#REF!</definedName>
     <definedName name="ModS_Ayar">#REF!</definedName>
     <definedName name="ModSSecimleri">#REF!</definedName>
     <definedName name="MRY_CİT_Cevap">#REF!</definedName>
@@ -243,20 +249,20 @@
     <definedName name="Operasyonel_Durum">#REF!</definedName>
     <definedName name="OperatorMesaji">#REF!</definedName>
     <definedName name="oto">#REF!</definedName>
+    <definedName name="OTOMATIK_SORGULAMA_BASLAT___Otomatik_Sorgulama_Alanları_Tanımlama_Mesajı__geldikten_sonra_bu_mesaj_anlam_kazanır.">#REF!</definedName>
     <definedName name="Otomatik_Arazi_Siluet_Onay">#REF!</definedName>
     <definedName name="Otomatik_Sorgu_Başlat">#REF!</definedName>
     <definedName name="Otomatik_Sorgulama_Alanları_Tanımlama_Mesajı">#REF!</definedName>
-    <definedName name="OTOMATIK_SORGULAMA_BASLAT___Otomatik_Sorgulama_Alanları_Tanımlama_Mesajı__geldikten_sonra_bu_mesaj_anlam_kazanır.">#REF!</definedName>
     <definedName name="OtomatikSorgulama">#REF!</definedName>
     <definedName name="PCIe_Protokol">#REF!</definedName>
     <definedName name="PlatformKonum">#REF!</definedName>
     <definedName name="RadarKontrol">#REF!</definedName>
     <definedName name="ragdb_cit">#REF!</definedName>
     <definedName name="RF_CİT_Verisi">#REF!</definedName>
-    <definedName name="rsi_cit_c">#REF!</definedName>
-    <definedName name="RSİ_CIT_Cevap">'Ekinoks Test'!$A$22</definedName>
     <definedName name="RSI_IST">#REF!</definedName>
     <definedName name="RSI_Versiyon_Cevap">'Ekinoks Test'!$A$29</definedName>
+    <definedName name="RSİ_CIT_Cevap">'Ekinoks Test'!$A$22</definedName>
+    <definedName name="rsi_cit_c">#REF!</definedName>
     <definedName name="rsirvistr_huzpar">#REF!</definedName>
     <definedName name="RSY_CİT_Cevap">#REF!</definedName>
     <definedName name="RSY_IST">#REF!</definedName>
@@ -265,10 +271,10 @@
     <definedName name="RSYCİT">#REF!</definedName>
     <definedName name="RSYNAK">#REF!</definedName>
     <definedName name="rsyrsyd_cit_c">#REF!</definedName>
-    <definedName name="rvi_cit_c">#REF!</definedName>
     <definedName name="RVI_CIT_Cevap">#REF!</definedName>
     <definedName name="RVI_IST">#REF!</definedName>
     <definedName name="RVI_Versiyon_Cevap">#REF!</definedName>
+    <definedName name="rvi_cit_c">#REF!</definedName>
     <definedName name="s">'[1]IFFSY-AKKDÇX'!#REF!</definedName>
     <definedName name="SAK_DCit">#REF!</definedName>
     <definedName name="SAK_Konf">#REF!</definedName>
@@ -312,9 +318,9 @@
     <definedName name="SHOBYazilimCevap">#REF!</definedName>
     <definedName name="SHOBYazilimYukle">#REF!</definedName>
     <definedName name="SI_islememod">#REF!</definedName>
-    <definedName name="SİBFPGA_CIT_Sonuc">#REF!</definedName>
     <definedName name="SIBFPGA_Huzpar_Cevap">#REF!</definedName>
     <definedName name="SIBGCB_Bilgisi">#REF!</definedName>
+    <definedName name="SİBFPGA_CIT_Sonuc">#REF!</definedName>
     <definedName name="Siluet_Istek">#REF!</definedName>
     <definedName name="Siluet_Istek_Onay">#REF!</definedName>
     <definedName name="SistemDurumRapor">#REF!</definedName>
@@ -388,7 +394,7 @@
     <definedName name="YKKAyarCevap">'[1]AKKDÇX-YKK'!#REF!</definedName>
     <definedName name="YKKAyarİstek">'[1]AKKDÇX-YKK'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Burak TİRYAKİ - Personal View" guid="{9C1D8575-4D64-4C1D-8E59-338F1B842B34}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" tabRatio="807" activeSheetId="8"/>
     <customWorkbookView name="Sait ERGÜVEN - Personal View" guid="{BCBB83E6-A565-49ED-8F18-31158C7C4959}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="781" activeSheetId="10"/>
@@ -401,6 +407,17 @@
     <customWorkbookView name="RFTiğrek - Personal View" guid="{613203C2-B5AE-4E3E-A005-419F8CE2B149}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="928" tabRatio="618" activeSheetId="1"/>
     <customWorkbookView name="Melih GÜNAY - Personal View" guid="{7E9584DB-6E79-4698-AB2B-D6B00E83D9FF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="946" activeSheetId="5" showComments="commIndAndComment"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -608,9 +625,6 @@
     <t>Bağlantı Durumu-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bağlantı Durumu - 2 </t>
-  </si>
-  <si>
     <t>Sağ</t>
   </si>
   <si>
@@ -676,12 +690,15 @@
   </si>
   <si>
     <t>[0, 205]</t>
+  </si>
+  <si>
+    <t>Bağlantı Durumu - 2.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1624,18 +1641,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink 2" xfId="5"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 2" xfId="9"/>
-    <cellStyle name="Hyperlink 2 2" xfId="10"/>
-    <cellStyle name="Hyperlink 3" xfId="11"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="İzlenen Köprü" xfId="4" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 2 3" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2058,7 +2075,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2100,7 +2117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2133,9 +2150,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2168,6 +2202,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2343,34 +2394,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="33" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="63.42578125" style="33" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="44.5" style="33" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="33" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="33" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="27.1640625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="63.5" style="33" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2440,7 @@
       <c r="L1" s="17"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +2459,7 @@
       <c r="L2" s="17"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -2427,7 +2478,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
         <v>31</v>
       </c>
@@ -2446,7 +2497,7 @@
       <c r="L4" s="49"/>
       <c r="M4" s="47"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2461,7 +2512,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
@@ -2480,7 +2531,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>30</v>
       </c>
@@ -2499,7 +2550,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>29</v>
       </c>
@@ -2518,7 +2569,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>20</v>
       </c>
@@ -2537,7 +2588,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>17</v>
       </c>
@@ -2556,7 +2607,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>21</v>
       </c>
@@ -2575,7 +2626,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2590,7 +2641,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101"/>
       <c r="B14" s="101"/>
       <c r="C14" s="101"/>
@@ -2646,7 +2697,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="42"/>
       <c r="C15" s="99"/>
@@ -2661,7 +2712,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="44"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="42"/>
       <c r="C16" s="99"/>
@@ -2676,7 +2727,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="44"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101"/>
       <c r="B17" s="32"/>
       <c r="C17" s="101"/>
@@ -2691,7 +2742,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -2723,7 +2774,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="44"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101"/>
       <c r="B19" s="32"/>
       <c r="C19" s="101"/>
@@ -2738,7 +2789,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -2761,7 +2812,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="44"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="101"/>
       <c r="B21" s="32"/>
       <c r="C21" s="101"/>
@@ -2776,7 +2827,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>60</v>
       </c>
@@ -2788,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="98">
         <v>0</v>
@@ -2800,13 +2851,13 @@
         <v>16</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I22" s="44">
         <v>0.8</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>54</v>
@@ -2814,7 +2865,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="44"/>
     </row>
-    <row r="23" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="42"/>
       <c r="C23" s="99"/>
@@ -2840,12 +2891,12 @@
       <c r="L23" s="7"/>
       <c r="M23" s="44"/>
     </row>
-    <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="42"/>
       <c r="C24" s="99"/>
       <c r="D24" s="6" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E24" s="98">
         <f>E23+F23</f>
@@ -2866,7 +2917,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="44"/>
     </row>
-    <row r="25" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="42"/>
       <c r="C25" s="99"/>
@@ -2892,7 +2943,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="44"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101"/>
       <c r="B26" s="32"/>
       <c r="C26" s="101"/>
@@ -2907,7 +2958,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
@@ -2930,7 +2981,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="44"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="101"/>
       <c r="B28" s="32"/>
       <c r="C28" s="101"/>
@@ -2945,7 +2996,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="42"/>
       <c r="C29" s="99"/>
@@ -2960,7 +3011,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="44"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="42"/>
       <c r="C30" s="99"/>
@@ -2975,7 +3026,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="42"/>
       <c r="C31" s="99"/>
@@ -2990,7 +3041,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="42"/>
       <c r="C32" s="99"/>
@@ -3005,7 +3056,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101"/>
       <c r="B33" s="32"/>
       <c r="C33" s="101"/>
@@ -3020,7 +3071,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="42"/>
       <c r="C34" s="99"/>
@@ -3035,7 +3086,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="16"/>
     </row>
-    <row r="35" spans="1:13" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="42"/>
       <c r="C35" s="116"/>
@@ -3050,7 +3101,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="16"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="101"/>
       <c r="B36" s="32"/>
       <c r="C36" s="101"/>
@@ -3065,7 +3116,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="42"/>
       <c r="C37" s="99"/>
@@ -3080,7 +3131,7 @@
       <c r="L37" s="7"/>
       <c r="M37" s="44"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="101"/>
       <c r="B38" s="32"/>
       <c r="C38" s="101"/>
@@ -3095,7 +3146,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="42"/>
       <c r="C39" s="99"/>
@@ -3110,7 +3161,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="16"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="42"/>
       <c r="C40" s="99"/>
@@ -3125,7 +3176,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="16"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="101"/>
       <c r="B41" s="32"/>
       <c r="C41" s="101"/>
@@ -3140,7 +3191,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="42"/>
       <c r="C42" s="99"/>
@@ -3155,7 +3206,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="16"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101"/>
       <c r="B43" s="32"/>
       <c r="C43" s="101"/>
@@ -3170,7 +3221,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="42"/>
       <c r="C44" s="99"/>
@@ -3185,7 +3236,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="44"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="42"/>
       <c r="C45" s="99"/>
@@ -3200,7 +3251,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="44"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="42"/>
       <c r="C46" s="99"/>
@@ -3215,7 +3266,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="44"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="42"/>
       <c r="C47" s="99"/>
@@ -3230,7 +3281,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="44"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="42"/>
       <c r="C48" s="99"/>
@@ -3245,7 +3296,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="44"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="42"/>
       <c r="C49" s="99"/>
@@ -3260,7 +3311,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="44"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="42"/>
       <c r="C50" s="99"/>
@@ -3275,7 +3326,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="44"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="42"/>
       <c r="C51" s="99"/>
@@ -3290,7 +3341,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="44"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="42"/>
       <c r="C52" s="99"/>
@@ -3305,7 +3356,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="44"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="42"/>
       <c r="C53" s="99"/>
@@ -3320,7 +3371,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="44"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="42"/>
       <c r="C54" s="99"/>
@@ -3335,7 +3386,7 @@
       <c r="L54" s="7"/>
       <c r="M54" s="44"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="42"/>
       <c r="C55" s="99"/>
@@ -3350,7 +3401,7 @@
       <c r="L55" s="7"/>
       <c r="M55" s="44"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="42"/>
       <c r="C56" s="99"/>
@@ -3365,7 +3416,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="44"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="42"/>
       <c r="C57" s="99"/>
@@ -3380,7 +3431,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="44"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="42"/>
       <c r="C58" s="99"/>
@@ -3395,7 +3446,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="44"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="42"/>
       <c r="C59" s="99"/>
@@ -3410,7 +3461,7 @@
       <c r="L59" s="7"/>
       <c r="M59" s="44"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101"/>
       <c r="B60" s="32"/>
       <c r="C60" s="101"/>
@@ -3425,7 +3476,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="42"/>
       <c r="C61" s="99"/>
@@ -3440,7 +3491,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="44"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="42"/>
       <c r="C62" s="99"/>
@@ -3455,7 +3506,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="16"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="42"/>
       <c r="C63" s="99"/>
@@ -3470,7 +3521,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="16"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="42"/>
       <c r="C64" s="99"/>
@@ -3485,7 +3536,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="16"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="42"/>
       <c r="C65" s="99"/>
@@ -3500,7 +3551,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="16"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="42"/>
       <c r="C66" s="99"/>
@@ -3515,7 +3566,7 @@
       <c r="L66" s="7"/>
       <c r="M66" s="16"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="42"/>
       <c r="C67" s="99"/>
@@ -3530,7 +3581,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="16"/>
     </row>
-    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="101"/>
       <c r="B68" s="32"/>
       <c r="C68" s="101"/>
@@ -3545,7 +3596,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="42"/>
       <c r="C69" s="99"/>
@@ -3560,7 +3611,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="44"/>
     </row>
-    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101"/>
       <c r="B70" s="32"/>
       <c r="C70" s="101"/>
@@ -3575,7 +3626,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="134"/>
       <c r="B71" s="136"/>
       <c r="C71" s="137"/>
@@ -3590,7 +3641,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="44"/>
     </row>
-    <row r="72" spans="1:13" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="135"/>
       <c r="B72" s="136"/>
       <c r="C72" s="138"/>
@@ -3603,7 +3654,7 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:13" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="109"/>
       <c r="B73" s="32"/>
       <c r="C73" s="109"/>
@@ -3618,7 +3669,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="108"/>
       <c r="B74" s="118"/>
       <c r="C74" s="112"/>
@@ -3633,7 +3684,7 @@
       <c r="L74" s="104"/>
       <c r="M74" s="106"/>
     </row>
-    <row r="75" spans="1:13" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="125"/>
       <c r="B75" s="126"/>
       <c r="C75" s="126"/>
@@ -3648,9 +3699,9 @@
       <c r="L75" s="126"/>
       <c r="M75" s="127"/>
     </row>
-    <row r="76" spans="1:13" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="108" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="118" t="s">
         <v>37</v>
@@ -3667,11 +3718,11 @@
       <c r="J76" s="102"/>
       <c r="K76" s="103"/>
       <c r="L76" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M76" s="106"/>
     </row>
-    <row r="77" spans="1:13" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="125"/>
       <c r="B77" s="126"/>
       <c r="C77" s="126"/>
@@ -3686,7 +3737,7 @@
       <c r="L77" s="126"/>
       <c r="M77" s="127"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -3701,7 +3752,7 @@
       <c r="L78" s="15"/>
       <c r="M78" s="8"/>
     </row>
-    <row r="79" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A79" s="81"/>
       <c r="B79" s="82"/>
       <c r="C79" s="82"/>
@@ -3716,7 +3767,7 @@
       <c r="L79" s="85"/>
       <c r="M79" s="83"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
         <v>47</v>
       </c>
@@ -3735,7 +3786,7 @@
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
         <v>48</v>
       </c>
@@ -3754,7 +3805,7 @@
       <c r="L81" s="15"/>
       <c r="M81" s="15"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>49</v>
       </c>
@@ -3773,7 +3824,7 @@
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
         <v>50</v>
       </c>
@@ -3792,7 +3843,7 @@
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
     </row>
-    <row r="84" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>51</v>
       </c>
@@ -3811,7 +3862,7 @@
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
     </row>
-    <row r="85" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16"/>
       <c r="B85" s="117"/>
       <c r="C85" s="117"/>
@@ -3826,7 +3877,7 @@
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
     </row>
-    <row r="86" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="110" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16"/>
       <c r="B86" s="117"/>
       <c r="C86" s="117"/>
@@ -3841,7 +3892,7 @@
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="86"/>
       <c r="B87" s="86"/>
       <c r="C87" s="86"/>
@@ -3874,34 +3925,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" style="50" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="50" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="73.7109375" style="50" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="50"/>
+    <col min="2" max="2" width="15.33203125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="50" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="73.6640625" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45"/>
       <c r="B1" s="139"/>
       <c r="C1" s="140"/>
@@ -3916,7 +3967,7 @@
       <c r="L1" s="49"/>
       <c r="M1" s="47"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="141"/>
       <c r="C2" s="142"/>
@@ -3931,7 +3982,7 @@
       <c r="L2" s="49"/>
       <c r="M2" s="47"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="143"/>
       <c r="C3" s="144"/>
@@ -3946,9 +3997,9 @@
       <c r="L3" s="49"/>
       <c r="M3" s="47"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="132"/>
       <c r="C4" s="133"/>
@@ -3963,7 +4014,7 @@
       <c r="L4" s="49"/>
       <c r="M4" s="47"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
@@ -3978,7 +4029,7 @@
       <c r="L5" s="49"/>
       <c r="M5" s="54"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
@@ -3997,9 +4048,9 @@
       <c r="L6" s="49"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="61" t="s">
         <v>22</v>
@@ -4016,9 +4067,9 @@
       <c r="L7" s="49"/>
       <c r="M7" s="54"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="61" t="s">
         <v>22</v>
@@ -4035,9 +4086,9 @@
       <c r="L8" s="49"/>
       <c r="M8" s="54"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="61" t="s">
         <v>23</v>
@@ -4056,9 +4107,9 @@
       <c r="L9" s="49"/>
       <c r="M9" s="54"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="61" t="s">
         <v>24</v>
@@ -4075,9 +4126,9 @@
       <c r="L10" s="49"/>
       <c r="M10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="63" t="s">
         <v>25</v>
@@ -4094,7 +4145,7 @@
       <c r="L11" s="49"/>
       <c r="M11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -4109,7 +4160,7 @@
       <c r="L12" s="49"/>
       <c r="M12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
         <v>0</v>
       </c>
@@ -4150,7 +4201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="79" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="73"/>
       <c r="C14" s="73"/>
@@ -4165,10 +4216,10 @@
       <c r="L14" s="77"/>
       <c r="M14" s="78"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
@@ -4181,7 +4232,7 @@
       <c r="J16" s="83"/>
       <c r="K16" s="84"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="8"/>
       <c r="C17" s="92"/>
@@ -4194,7 +4245,7 @@
       <c r="J17" s="31"/>
       <c r="K17" s="28"/>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="86"/>
       <c r="C18" s="86"/>
@@ -4207,7 +4258,7 @@
       <c r="J18" s="87"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="109"/>
       <c r="B19" s="32"/>
       <c r="C19" s="109"/>
@@ -4220,7 +4271,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="107"/>
       <c r="B20" s="113"/>
       <c r="C20" s="114"/>
@@ -4232,19 +4283,19 @@
       <c r="I20" s="94"/>
       <c r="J20" s="102"/>
       <c r="K20" s="103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" s="85"/>
       <c r="M20" s="83"/>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="120"/>
       <c r="C21" s="121"/>
       <c r="D21" s="96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="94"/>
       <c r="F21" s="94">
@@ -4256,7 +4307,7 @@
       <c r="H21" s="95"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="104"/>
       <c r="L21" s="15"/>
@@ -4264,7 +4315,7 @@
       <c r="N21" s="43"/>
       <c r="O21" s="41"/>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="109"/>
       <c r="B22" s="32"/>
       <c r="C22" s="109"/>
@@ -4279,7 +4330,7 @@
       <c r="L22" s="89"/>
       <c r="M22" s="87"/>
     </row>
-    <row r="23" spans="1:15" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="109"/>
       <c r="B23" s="32"/>
       <c r="C23" s="109"/>
@@ -4295,7 +4346,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="50"/>
     </row>
-    <row r="24" spans="1:15" s="110" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="110" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
       <c r="B24" s="42"/>
       <c r="C24" s="115"/>
@@ -4307,21 +4358,21 @@
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="103" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L24" s="104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M24" s="106"/>
     </row>
-    <row r="25" spans="1:15" s="110" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="110" customFormat="1" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="123"/>
       <c r="C25" s="124"/>
       <c r="D25" s="96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="94"/>
       <c r="F25" s="94">
@@ -4333,14 +4384,14 @@
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K25" s="104"/>
       <c r="L25" s="104"/>
       <c r="M25" s="119"/>
       <c r="N25" s="50"/>
     </row>
-    <row r="26" spans="1:15" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
@@ -4356,7 +4407,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="50"/>
     </row>
-    <row r="27" spans="1:15" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
@@ -4371,7 +4422,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:15" s="110" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="110" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
@@ -4384,12 +4435,12 @@
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
       <c r="L28" s="104" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M28" s="44"/>
       <c r="N28" s="50"/>
     </row>
-    <row r="29" spans="1:15" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -4404,7 +4455,7 @@
       <c r="L29" s="104"/>
       <c r="M29" s="119"/>
     </row>
-    <row r="30" spans="1:15" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
@@ -4419,7 +4470,7 @@
       <c r="L30" s="50"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:15" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -4435,7 +4486,7 @@
       <c r="M31" s="44"/>
       <c r="N31" s="50"/>
     </row>
-    <row r="32" spans="1:15" s="110" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="110" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -4450,7 +4501,7 @@
       <c r="L32" s="50"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" s="110" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="110" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
@@ -4465,7 +4516,7 @@
       <c r="L33" s="50"/>
       <c r="M33" s="50"/>
     </row>
-    <row r="34" spans="1:13" s="110" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="110" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
